--- a/2DTopDownProject/Assets/Data/InGameData.xlsx
+++ b/2DTopDownProject/Assets/Data/InGameData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity project\2DTopDownProject\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\OneDriver\문서\GitHub\Unity_2DTopDownProject\2DTopDownProject\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82644288-8C00-430D-BB52-3853C1D6CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F10A39-ABDA-49AC-8B64-047238C02795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4776" yWindow="3348" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{42FF91D5-01CB-4F9C-9242-374E538A2337}"/>
+    <workbookView xWindow="29952" yWindow="948" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{42FF91D5-01CB-4F9C-9242-374E538A2337}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerName" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://rootdev.tistory.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,11 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(튜터님 서.. 선채로 죽었어!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사실유근본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rootdev.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜터님 서.. 선채로 죽었어!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,16 +502,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>1234</v>
@@ -533,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>1234</v>
@@ -553,14 +553,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -576,24 +576,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
